--- a/Regression/sprint_regression/NRG_regression/final_report/Apple_July_regression_NRG_web__07_10_2020_.xlsx
+++ b/Regression/sprint_regression/NRG_regression/final_report/Apple_July_regression_NRG_web__07_10_2020_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
   <si>
     <t>ts</t>
   </si>
@@ -388,13 +388,7 @@
     <t>epenet_passed</t>
   </si>
   <si>
-    <t>not found</t>
-  </si>
-  <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>in epnet process</t>
   </si>
 </sst>
 </file>
@@ -915,7 +909,7 @@
         <v>123</v>
       </c>
       <c r="Z2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -992,10 +986,10 @@
         <v>122</v>
       </c>
       <c r="Y3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z3" t="s">
         <v>124</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1075,7 +1069,7 @@
         <v>123</v>
       </c>
       <c r="Z4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1155,7 +1149,7 @@
         <v>123</v>
       </c>
       <c r="Z5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1235,7 +1229,7 @@
         <v>123</v>
       </c>
       <c r="Z6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1315,7 +1309,7 @@
         <v>123</v>
       </c>
       <c r="Z7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1395,7 +1389,7 @@
         <v>123</v>
       </c>
       <c r="Z8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1475,7 +1469,7 @@
         <v>123</v>
       </c>
       <c r="Z9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1552,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z10" t="s">
         <v>124</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1632,10 +1626,10 @@
         <v>122</v>
       </c>
       <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z11" t="s">
         <v>124</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
